--- a/biology/Botanique/Liparis_letouzeyana/Liparis_letouzeyana.xlsx
+++ b/biology/Botanique/Liparis_letouzeyana/Liparis_letouzeyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liparis letouzeyana Szlach. &amp; Olszewski est une espèce d'Orchidées du genre Liparis, endémique du Cameroun[2]. Elle a été décrite par les botanistes polonais Dariusz Szlachetko et Tomasz S. Olszewski (es).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liparis letouzeyana Szlach. &amp; Olszewski est une espèce d'Orchidées du genre Liparis, endémique du Cameroun. Elle a été décrite par les botanistes polonais Dariusz Szlachetko et Tomasz S. Olszewski (es).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique fait référence au botaniste français René Letouzey qui l'a récoltée en 1972 près du lac Bambuluwe (ceb), à une altitude de 2 000 m, à 10 km au sud sud-est de Bamenda[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique fait référence au botaniste français René Letouzey qui l'a récoltée en 1972 près du lac Bambuluwe (ceb), à une altitude de 2 000 m, à 10 km au sud sud-est de Bamenda.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite herbe, dotée de pseudobulbes, dont les feuilles peuvent atteindre 5,5 cm de longueur[3]. Ses bractées sont jaunâtres et ses fleurs sont pourprées à labelle plus foncé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite herbe, dotée de pseudobulbes, dont les feuilles peuvent atteindre 5,5 cm de longueur. Ses bractées sont jaunâtres et ses fleurs sont pourprées à labelle plus foncé.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, très rare, elle n'est connue qu'à travers l'échantillon-type, fertile, récolté par Letouzey[4].
-Son milieu est celui du pâturage de montagne à Sporobolus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, très rare, elle n'est connue qu'à travers l'échantillon-type, fertile, récolté par Letouzey.
+Son milieu est celui du pâturage de montagne à Sporobolus.
 </t>
         </is>
       </c>
